--- a/bshe/Case_123bus/case123_REGCV1_v4.xlsx
+++ b/bshe/Case_123bus/case123_REGCV1_v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\buxin\andes\bshe\Case_123bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652166C0-3D3E-468F-AE0F-057FF88AB6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283F7290-5ACC-4E57-9FE0-13DB856BBB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -2668,9 +2668,9 @@
       <selection pane="bottomLeft" activeCell="A116" sqref="A116:XFD118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -7524,13 +7524,13 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="7.41796875" customWidth="1"/>
-    <col min="8" max="8" width="12.41796875" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7839,19 +7839,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E79EE03-0C1F-4AE7-B0DB-BDDEF8C2FA9F}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I12"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.15625" style="2"/>
-    <col min="3" max="3" width="13.83984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.41796875" style="2" customWidth="1"/>
-    <col min="5" max="9" width="9.15625" style="2"/>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="13.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="2" customWidth="1"/>
+    <col min="5" max="9" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>568</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>569</v>
       </c>
@@ -7938,7 +7938,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>576</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>579</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>582</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>585</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>588</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>591</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>593</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>595</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -8214,13 +8214,13 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.15625" customWidth="1"/>
-    <col min="4" max="4" width="10.83984375" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -8246,7 +8246,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>568</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>569</v>
       </c>
@@ -8298,7 +8298,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>576</v>
       </c>
@@ -8324,7 +8324,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>579</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>582</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>585</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>588</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>591</v>
       </c>
@@ -8454,7 +8454,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>593</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>595</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -8546,14 +8546,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="16.15625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -8576,7 +8576,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>568</v>
       </c>
@@ -8610,12 +8610,12 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>568</v>
       </c>
@@ -8730,7 +8730,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>569</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>576</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>605</v>
       </c>
       <c r="E4" s="2">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F4">
         <v>4.16</v>
@@ -8842,7 +8842,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>579</v>
       </c>
@@ -8856,7 +8856,7 @@
         <v>606</v>
       </c>
       <c r="E5" s="2">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F5">
         <v>4.16</v>
@@ -8898,7 +8898,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>582</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>608</v>
       </c>
       <c r="E6" s="2">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F6">
         <v>4.16</v>
@@ -8954,7 +8954,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>585</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>609</v>
       </c>
       <c r="E7" s="2">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F7">
         <v>4.16</v>
@@ -9010,7 +9010,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>588</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>610</v>
       </c>
       <c r="E8" s="2">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F8">
         <v>4.16</v>
@@ -9066,7 +9066,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>591</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>611</v>
       </c>
       <c r="E9" s="2">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F9">
         <v>4.16</v>
@@ -9122,7 +9122,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>593</v>
       </c>
@@ -9136,7 +9136,7 @@
         <v>612</v>
       </c>
       <c r="E10" s="2">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F10">
         <v>4.16</v>
@@ -9178,7 +9178,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>595</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>613</v>
       </c>
       <c r="E11" s="2">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F11">
         <v>4.16</v>
@@ -9249,9 +9249,9 @@
       <selection pane="bottomLeft" activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -9286,7 +9286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -9318,7 +9318,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -9350,7 +9350,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -9382,7 +9382,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -9414,7 +9414,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -9446,7 +9446,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -9478,7 +9478,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -9510,7 +9510,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -9638,7 +9638,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -9702,7 +9702,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -9798,7 +9798,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -9862,7 +9862,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -9894,7 +9894,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -9990,7 +9990,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -10022,7 +10022,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -10054,7 +10054,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -10086,7 +10086,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -10118,7 +10118,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -10182,7 +10182,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -10214,7 +10214,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -10278,7 +10278,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -10310,7 +10310,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -10342,7 +10342,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -10374,7 +10374,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -10406,7 +10406,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -10470,7 +10470,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -10502,7 +10502,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -10534,7 +10534,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -10566,7 +10566,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -10598,7 +10598,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -10630,7 +10630,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -10662,7 +10662,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -10694,7 +10694,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -10726,7 +10726,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -10758,7 +10758,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -10790,7 +10790,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -10822,7 +10822,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -10854,7 +10854,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -10886,7 +10886,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -10918,7 +10918,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -10950,7 +10950,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -11014,7 +11014,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -11046,7 +11046,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -11078,7 +11078,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -11110,7 +11110,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -11142,7 +11142,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -11206,7 +11206,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -11238,7 +11238,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -11270,7 +11270,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -11302,7 +11302,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -11334,7 +11334,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -11366,7 +11366,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -11398,7 +11398,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -11430,7 +11430,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -11462,7 +11462,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -11494,7 +11494,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -11526,7 +11526,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -11558,7 +11558,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -11590,7 +11590,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -11622,7 +11622,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -11654,7 +11654,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -11686,7 +11686,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -11718,7 +11718,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -11782,7 +11782,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -11814,7 +11814,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -11878,7 +11878,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -11910,7 +11910,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -11942,7 +11942,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -11974,7 +11974,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -12006,7 +12006,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -12048,16 +12048,16 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.26171875" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -12101,7 +12101,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -12143,7 +12143,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -12227,13 +12227,13 @@
         <v>568</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
     </row>
   </sheetData>
@@ -12251,9 +12251,9 @@
       <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -12315,7 +12315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -12383,17 +12383,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F56226-785A-488D-8C61-BF68509E5803}">
   <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.41796875" customWidth="1"/>
-    <col min="4" max="4" width="11.83984375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -12479,7 +12479,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -12508,7 +12508,7 @@
         <v>0.5</v>
       </c>
       <c r="L2" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M2" s="2">
         <v>0.02</v>
@@ -12559,7 +12559,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -12588,7 +12588,7 @@
         <v>0.5</v>
       </c>
       <c r="L3" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M3" s="2">
         <v>0.02</v>
@@ -12639,7 +12639,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -12669,7 +12669,7 @@
         <v>0.5</v>
       </c>
       <c r="L4" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M4" s="2">
         <v>0.02</v>
@@ -12729,13 +12729,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F52312C-9EB0-4491-84C4-4E674F47FD2C}">
   <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -12815,7 +12815,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>569</v>
       </c>
@@ -12849,10 +12849,10 @@
         <v>568</v>
       </c>
       <c r="M2" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N2" s="2">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>662</v>
@@ -12891,7 +12891,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>576</v>
       </c>
@@ -12925,10 +12925,10 @@
         <v>568</v>
       </c>
       <c r="M3" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N3" s="2">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>662</v>
@@ -12967,7 +12967,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>579</v>
       </c>
@@ -13001,10 +13001,10 @@
         <v>568</v>
       </c>
       <c r="M4" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N4" s="2">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>662</v>
@@ -13043,7 +13043,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>582</v>
       </c>
@@ -13077,10 +13077,10 @@
         <v>568</v>
       </c>
       <c r="M5" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N5" s="2">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>662</v>
@@ -13119,7 +13119,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>585</v>
       </c>
@@ -13153,10 +13153,10 @@
         <v>568</v>
       </c>
       <c r="M6" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N6" s="2">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>662</v>
@@ -13195,7 +13195,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>588</v>
       </c>
@@ -13229,10 +13229,10 @@
         <v>568</v>
       </c>
       <c r="M7" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N7" s="2">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>662</v>
@@ -13271,7 +13271,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>591</v>
       </c>
@@ -13305,10 +13305,10 @@
         <v>568</v>
       </c>
       <c r="M8" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N8" s="2">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>662</v>
@@ -13347,7 +13347,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>593</v>
       </c>
@@ -13381,10 +13381,10 @@
         <v>568</v>
       </c>
       <c r="M9" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N9" s="2">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>662</v>
@@ -13437,12 +13437,12 @@
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="11.26171875" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -13504,7 +13504,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -13566,7 +13566,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -13628,7 +13628,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -13704,12 +13704,12 @@
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.41796875" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -13792,7 +13792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -13866,7 +13866,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -13940,7 +13940,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -14014,7 +14014,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -14088,7 +14088,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -14162,7 +14162,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -14236,7 +14236,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -14310,7 +14310,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -14384,7 +14384,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -14458,7 +14458,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -14532,7 +14532,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -14606,7 +14606,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -14680,7 +14680,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -14754,7 +14754,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -14828,7 +14828,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -14902,7 +14902,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -14976,7 +14976,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -15050,7 +15050,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -15124,7 +15124,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -15198,7 +15198,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -15272,7 +15272,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -15346,7 +15346,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -15420,7 +15420,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -15494,7 +15494,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -15568,7 +15568,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -15642,7 +15642,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -15716,7 +15716,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -15790,7 +15790,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -15864,7 +15864,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -15938,7 +15938,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -16012,7 +16012,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -16086,7 +16086,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -16160,7 +16160,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -16234,7 +16234,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -16308,7 +16308,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -16382,7 +16382,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -16456,7 +16456,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -16530,7 +16530,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -16604,7 +16604,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -16678,7 +16678,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -16752,7 +16752,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -16826,7 +16826,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -16900,7 +16900,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -16974,7 +16974,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -17048,7 +17048,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -17122,7 +17122,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -17196,7 +17196,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -17270,7 +17270,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -17344,7 +17344,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -17418,7 +17418,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -17492,7 +17492,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -17566,7 +17566,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -17640,7 +17640,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -17714,7 +17714,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -17788,7 +17788,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -17862,7 +17862,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -17936,7 +17936,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -18010,7 +18010,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -18084,7 +18084,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -18158,7 +18158,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -18232,7 +18232,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -18306,7 +18306,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -18380,7 +18380,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -18454,7 +18454,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -18528,7 +18528,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -18602,7 +18602,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -18676,7 +18676,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -18750,7 +18750,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -18824,7 +18824,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -18898,7 +18898,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -18972,7 +18972,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -19046,7 +19046,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -19120,7 +19120,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -19194,7 +19194,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -19268,7 +19268,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -19342,7 +19342,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -19416,7 +19416,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -19490,7 +19490,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -19564,7 +19564,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -19638,7 +19638,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -19712,7 +19712,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -19786,7 +19786,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -19860,7 +19860,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -19934,7 +19934,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -20008,7 +20008,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -20082,7 +20082,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -20156,7 +20156,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -20230,7 +20230,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -20304,7 +20304,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -20378,7 +20378,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -20452,7 +20452,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -20526,7 +20526,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -20600,7 +20600,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -20674,7 +20674,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -20748,7 +20748,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -20822,7 +20822,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -20896,7 +20896,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -20970,7 +20970,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -21044,7 +21044,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -21118,7 +21118,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -21192,7 +21192,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -21266,7 +21266,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -21340,7 +21340,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -21414,7 +21414,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -21488,7 +21488,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -21562,7 +21562,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -21636,7 +21636,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -21710,7 +21710,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -21784,7 +21784,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -21858,7 +21858,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -21932,7 +21932,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -22006,7 +22006,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -22080,7 +22080,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -22154,7 +22154,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -22228,7 +22228,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -22302,7 +22302,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
